--- a/examples/data/world_temperatures.xlsx
+++ b/examples/data/world_temperatures.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Sites/d3-ez/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964AA98E-21CD-5441-9814-BB3597862257}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C2D0E2-D1B7-D24E-BEE9-D6DD6C3A5414}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="480" windowWidth="25600" windowHeight="15540" xr2:uid="{1E6C0CEF-1CF0-FC4D-A71F-DBB4FE69EEF0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1E6C0CEF-1CF0-FC4D-A71F-DBB4FE69EEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
   <si>
     <t>Jan</t>
   </si>
@@ -67,15 +68,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>http://www.holiday-weather.com/london/averages/</t>
-  </si>
-  <si>
-    <t>Average Temperature °C</t>
   </si>
   <si>
     <t>Amsterdam</t>
@@ -167,6 +159,15 @@
   <si>
     <t>Punta Cana</t>
   </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -230,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,15 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F176818-3430-ED45-9A60-E7E29B0E8DEB}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="13" width="10.83203125" style="8"/>
     <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" style="1" customWidth="1"/>
@@ -564,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -611,7 +607,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7">
         <v>3</v>
@@ -658,7 +654,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7">
         <v>5</v>
@@ -705,7 +701,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -752,7 +748,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7">
         <v>5</v>
@@ -799,7 +795,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7">
         <v>-3</v>
@@ -846,7 +842,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>9</v>
@@ -893,7 +889,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
@@ -940,7 +936,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7">
         <v>10</v>
@@ -987,7 +983,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -1034,7 +1030,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -1081,7 +1077,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -1128,7 +1124,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7">
         <v>10</v>
@@ -1175,7 +1171,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
@@ -1222,7 +1218,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
@@ -1269,7 +1265,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -1316,7 +1312,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7">
         <v>5</v>
@@ -1363,7 +1359,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7">
         <v>11</v>
@@ -1410,7 +1406,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="7">
         <v>13</v>
@@ -1457,7 +1453,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -1504,7 +1500,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7">
         <v>13</v>
@@ -1551,7 +1547,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7">
         <v>17</v>
@@ -1598,7 +1594,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7">
         <v>17</v>
@@ -1645,7 +1641,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7">
         <v>18</v>
@@ -1692,7 +1688,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="7">
         <v>19</v>
@@ -1739,7 +1735,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7">
         <v>23</v>
@@ -1786,7 +1782,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7">
         <v>25</v>
@@ -1833,7 +1829,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
@@ -1880,7 +1876,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7">
         <v>26</v>
@@ -1927,7 +1923,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7">
         <v>23</v>
@@ -1974,7 +1970,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="7">
         <v>21</v>
@@ -2019,34 +2015,9 @@
         <v>144.96305799999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:O34">
-    <sortCondition descending="1" ref="N2:N34"/>
+  <sortState ref="A2:O31">
+    <sortCondition descending="1" ref="N2:N31"/>
   </sortState>
   <conditionalFormatting sqref="B2:M31">
     <cfRule type="colorScale" priority="1">
@@ -2063,4 +2034,4135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5D467-5899-6D4E-B503-8830425F0F54}">
+  <dimension ref="A1:C361"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="7">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C61">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C91">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C121">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122:C151">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152:C181">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182:C211">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212:C241">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242:C271">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272:C301">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C302:C331">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C332:C361">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/data/world_temperatures.xlsx
+++ b/examples/data/world_temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Sites/d3-ez/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C2D0E2-D1B7-D24E-BEE9-D6DD6C3A5414}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FEA973-705B-8B43-9062-5D65EAFA5234}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1E6C0CEF-1CF0-FC4D-A71F-DBB4FE69EEF0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="47">
   <si>
     <t>Jan</t>
   </si>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F176818-3430-ED45-9A60-E7E29B0E8DEB}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2038,27 +2038,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5D467-5899-6D4E-B503-8830425F0F54}">
-  <dimension ref="A1:C361"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2068,8 +2078,14 @@
       <c r="C2" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2079,8 +2095,14 @@
       <c r="C3" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2090,8 +2112,14 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2101,8 +2129,14 @@
       <c r="C5" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2112,8 +2146,14 @@
       <c r="C6" s="7">
         <v>-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2163,14 @@
       <c r="C7" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2134,8 +2180,14 @@
       <c r="C8" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,8 +2197,14 @@
       <c r="C9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2156,8 +2214,14 @@
       <c r="C10" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2167,8 +2231,14 @@
       <c r="C11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2248,14 @@
       <c r="C12" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2265,14 @@
       <c r="C13" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2200,8 +2282,14 @@
       <c r="C14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2211,8 +2299,14 @@
       <c r="C15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2222,8 +2316,14 @@
       <c r="C16" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E16" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2233,8 +2333,14 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E17" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2244,8 +2350,14 @@
       <c r="C18" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2255,8 +2367,14 @@
       <c r="C19" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2266,8 +2384,14 @@
       <c r="C20" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2277,8 +2401,14 @@
       <c r="C21" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2418,14 @@
       <c r="C22" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -2299,8 +2435,14 @@
       <c r="C23" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2310,8 +2452,14 @@
       <c r="C24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2321,8 +2469,14 @@
       <c r="C25" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2332,8 +2486,14 @@
       <c r="C26" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -2343,8 +2503,14 @@
       <c r="C27" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -2354,8 +2520,14 @@
       <c r="C28" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E28" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -2365,8 +2537,14 @@
       <c r="C29" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E29" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2376,8 +2554,14 @@
       <c r="C30" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2571,14 @@
       <c r="C31" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2398,8 +2588,14 @@
       <c r="C32" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -2409,8 +2605,14 @@
       <c r="C33" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -2420,8 +2622,14 @@
       <c r="C34" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -2431,8 +2639,14 @@
       <c r="C35" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -2442,8 +2656,14 @@
       <c r="C36" s="7">
         <v>-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -2453,8 +2673,14 @@
       <c r="C37" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E37" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -2464,8 +2690,14 @@
       <c r="C38" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2475,8 +2707,14 @@
       <c r="C39" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2486,8 +2724,14 @@
       <c r="C40" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
@@ -2497,8 +2741,14 @@
       <c r="C41" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -2508,8 +2758,14 @@
       <c r="C42" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
@@ -2519,8 +2775,14 @@
       <c r="C43" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2792,14 @@
       <c r="C44" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
@@ -2541,8 +2809,14 @@
       <c r="C45" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2552,8 +2826,14 @@
       <c r="C46" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E46" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2563,8 +2843,14 @@
       <c r="C47" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E47" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
@@ -2574,8 +2860,14 @@
       <c r="C48" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E48" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="C49" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E49" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -2596,8 +2894,14 @@
       <c r="C50" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>31</v>
       </c>
@@ -2607,8 +2911,14 @@
       <c r="C51" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
@@ -2618,8 +2928,14 @@
       <c r="C52" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E52" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
@@ -2629,8 +2945,14 @@
       <c r="C53" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -2640,8 +2962,14 @@
       <c r="C54" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -2651,8 +2979,14 @@
       <c r="C55" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E55" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -2662,8 +2996,14 @@
       <c r="C56" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
@@ -2673,8 +3013,14 @@
       <c r="C57" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E57" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>35</v>
       </c>
@@ -2684,8 +3030,14 @@
       <c r="C58" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E58" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2695,8 +3047,14 @@
       <c r="C59" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E59" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>37</v>
       </c>
@@ -2706,8 +3064,14 @@
       <c r="C60" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E60" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
@@ -2717,8 +3081,14 @@
       <c r="C61" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E61" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
@@ -2728,8 +3098,14 @@
       <c r="C62" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
@@ -2739,8 +3115,14 @@
       <c r="C63" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -2750,8 +3132,14 @@
       <c r="C64" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -2761,8 +3149,14 @@
       <c r="C65" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -2772,8 +3166,14 @@
       <c r="C66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E66" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
@@ -2783,8 +3183,14 @@
       <c r="C67" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E67" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
@@ -2794,8 +3200,14 @@
       <c r="C68" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E68" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -2805,8 +3217,14 @@
       <c r="C69" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -2816,8 +3234,14 @@
       <c r="C70" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E70" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
@@ -2827,8 +3251,14 @@
       <c r="C71" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -2838,8 +3268,14 @@
       <c r="C72" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -2849,8 +3285,14 @@
       <c r="C73" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E73" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>25</v>
       </c>
@@ -2860,8 +3302,14 @@
       <c r="C74" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E74" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -2871,8 +3319,14 @@
       <c r="C75" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E75" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -2882,8 +3336,14 @@
       <c r="C76" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E76" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2893,8 +3353,14 @@
       <c r="C77" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E77" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>29</v>
       </c>
@@ -2904,8 +3370,14 @@
       <c r="C78" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E78" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
@@ -2915,8 +3387,14 @@
       <c r="C79" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E79" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
@@ -2926,8 +3404,14 @@
       <c r="C80" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E80" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -2937,8 +3421,14 @@
       <c r="C81" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E81" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -2948,8 +3438,14 @@
       <c r="C82" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E82" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2959,8 +3455,14 @@
       <c r="C83" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -2970,8 +3472,14 @@
       <c r="C84" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E84" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>42</v>
       </c>
@@ -2981,8 +3489,14 @@
       <c r="C85" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E85" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>34</v>
       </c>
@@ -2992,8 +3506,14 @@
       <c r="C86" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E86" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>43</v>
       </c>
@@ -3003,8 +3523,14 @@
       <c r="C87" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E87" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
@@ -3014,8 +3540,14 @@
       <c r="C88" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E88" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>36</v>
       </c>
@@ -3025,8 +3557,14 @@
       <c r="C89" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E89" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>37</v>
       </c>
@@ -3036,8 +3574,14 @@
       <c r="C90" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E90" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>38</v>
       </c>
@@ -3047,8 +3591,14 @@
       <c r="C91" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E91" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>14</v>
       </c>
@@ -3058,8 +3608,14 @@
       <c r="C92" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E92" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>15</v>
       </c>
@@ -3069,8 +3625,14 @@
       <c r="C93" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -3080,8 +3642,14 @@
       <c r="C94" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E94" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -3091,8 +3659,14 @@
       <c r="C95" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E95" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>18</v>
       </c>
@@ -3102,8 +3676,14 @@
       <c r="C96" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E96" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>19</v>
       </c>
@@ -3113,8 +3693,14 @@
       <c r="C97" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E97" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3710,14 @@
       <c r="C98" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E98" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -3135,8 +3727,14 @@
       <c r="C99" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E99" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>39</v>
       </c>
@@ -3146,8 +3744,14 @@
       <c r="C100" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E100" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>22</v>
       </c>
@@ -3157,8 +3761,14 @@
       <c r="C101" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E101" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -3168,8 +3778,14 @@
       <c r="C102" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E102" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>24</v>
       </c>
@@ -3179,8 +3795,14 @@
       <c r="C103" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E103" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>25</v>
       </c>
@@ -3190,8 +3812,14 @@
       <c r="C104" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E104" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -3201,8 +3829,14 @@
       <c r="C105" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E105" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>27</v>
       </c>
@@ -3212,8 +3846,14 @@
       <c r="C106" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E106" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>28</v>
       </c>
@@ -3223,8 +3863,14 @@
       <c r="C107" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E107" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -3234,8 +3880,14 @@
       <c r="C108" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E108" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>30</v>
       </c>
@@ -3245,8 +3897,14 @@
       <c r="C109" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E109" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>40</v>
       </c>
@@ -3256,8 +3914,14 @@
       <c r="C110" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E110" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>31</v>
       </c>
@@ -3267,8 +3931,14 @@
       <c r="C111" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E111" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>32</v>
       </c>
@@ -3278,8 +3948,14 @@
       <c r="C112" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E112" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>33</v>
       </c>
@@ -3289,8 +3965,14 @@
       <c r="C113" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E113" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>41</v>
       </c>
@@ -3300,8 +3982,14 @@
       <c r="C114" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E114" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>42</v>
       </c>
@@ -3311,8 +3999,14 @@
       <c r="C115" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E115" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>34</v>
       </c>
@@ -3322,8 +4016,14 @@
       <c r="C116" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E116" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -3333,8 +4033,14 @@
       <c r="C117" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E117" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>35</v>
       </c>
@@ -3344,8 +4050,14 @@
       <c r="C118" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E118" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>36</v>
       </c>
@@ -3355,8 +4067,14 @@
       <c r="C119" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E119" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>37</v>
       </c>
@@ -3366,8 +4084,14 @@
       <c r="C120" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E120" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>38</v>
       </c>
@@ -3377,8 +4101,14 @@
       <c r="C121" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E121" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>14</v>
       </c>
@@ -3388,8 +4118,14 @@
       <c r="C122" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E122" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>15</v>
       </c>
@@ -3399,8 +4135,14 @@
       <c r="C123" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E123" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>16</v>
       </c>
@@ -3410,8 +4152,14 @@
       <c r="C124" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E124" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -3421,8 +4169,14 @@
       <c r="C125" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>18</v>
       </c>
@@ -3432,8 +4186,14 @@
       <c r="C126" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E126" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>19</v>
       </c>
@@ -3443,8 +4203,14 @@
       <c r="C127" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E127" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>20</v>
       </c>
@@ -3454,8 +4220,14 @@
       <c r="C128" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E128" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>21</v>
       </c>
@@ -3465,8 +4237,14 @@
       <c r="C129" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E129" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>39</v>
       </c>
@@ -3476,8 +4254,14 @@
       <c r="C130" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E130" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -3487,8 +4271,14 @@
       <c r="C131" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>23</v>
       </c>
@@ -3498,8 +4288,14 @@
       <c r="C132" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E132" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>24</v>
       </c>
@@ -3509,8 +4305,14 @@
       <c r="C133" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E133" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>25</v>
       </c>
@@ -3520,8 +4322,14 @@
       <c r="C134" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E134" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>26</v>
       </c>
@@ -3531,8 +4339,14 @@
       <c r="C135" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E135" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>27</v>
       </c>
@@ -3542,8 +4356,14 @@
       <c r="C136" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E136" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>28</v>
       </c>
@@ -3553,8 +4373,14 @@
       <c r="C137" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E137" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>29</v>
       </c>
@@ -3564,8 +4390,14 @@
       <c r="C138" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E138" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>30</v>
       </c>
@@ -3575,8 +4407,14 @@
       <c r="C139" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E139" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>40</v>
       </c>
@@ -3586,8 +4424,14 @@
       <c r="C140" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E140" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>31</v>
       </c>
@@ -3597,8 +4441,14 @@
       <c r="C141" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E141" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>32</v>
       </c>
@@ -3608,8 +4458,14 @@
       <c r="C142" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E142" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>33</v>
       </c>
@@ -3619,8 +4475,14 @@
       <c r="C143" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E143" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>41</v>
       </c>
@@ -3630,8 +4492,14 @@
       <c r="C144" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E144" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>42</v>
       </c>
@@ -3641,8 +4509,14 @@
       <c r="C145" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E145" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>34</v>
       </c>
@@ -3652,8 +4526,14 @@
       <c r="C146" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E146" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>43</v>
       </c>
@@ -3663,8 +4543,14 @@
       <c r="C147" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E147" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>35</v>
       </c>
@@ -3674,8 +4560,14 @@
       <c r="C148" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E148" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>36</v>
       </c>
@@ -3685,8 +4577,14 @@
       <c r="C149" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E149" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>37</v>
       </c>
@@ -3696,8 +4594,14 @@
       <c r="C150" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E150" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>38</v>
       </c>
@@ -3707,8 +4611,14 @@
       <c r="C151" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E151" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>14</v>
       </c>
@@ -3718,8 +4628,14 @@
       <c r="C152" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E152" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
@@ -3729,8 +4645,14 @@
       <c r="C153" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E153" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
@@ -3740,8 +4662,14 @@
       <c r="C154" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E154" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>17</v>
       </c>
@@ -3751,8 +4679,14 @@
       <c r="C155" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E155" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>18</v>
       </c>
@@ -3762,8 +4696,14 @@
       <c r="C156" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E156" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>19</v>
       </c>
@@ -3773,8 +4713,14 @@
       <c r="C157" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E157" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>20</v>
       </c>
@@ -3784,8 +4730,14 @@
       <c r="C158" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E158" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>21</v>
       </c>
@@ -3795,8 +4747,14 @@
       <c r="C159" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E159" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>39</v>
       </c>
@@ -3806,8 +4764,14 @@
       <c r="C160" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E160" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>22</v>
       </c>
@@ -3817,8 +4781,14 @@
       <c r="C161" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E161" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -3828,8 +4798,14 @@
       <c r="C162" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E162" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>24</v>
       </c>
@@ -3839,8 +4815,14 @@
       <c r="C163" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E163" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>25</v>
       </c>
@@ -3850,8 +4832,14 @@
       <c r="C164" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E164" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>26</v>
       </c>
@@ -3861,8 +4849,14 @@
       <c r="C165" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E165" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>27</v>
       </c>
@@ -3872,8 +4866,14 @@
       <c r="C166" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E166" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>28</v>
       </c>
@@ -3883,8 +4883,14 @@
       <c r="C167" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E167" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>29</v>
       </c>
@@ -3894,8 +4900,14 @@
       <c r="C168" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E168" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>30</v>
       </c>
@@ -3905,8 +4917,14 @@
       <c r="C169" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E169" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>40</v>
       </c>
@@ -3916,8 +4934,14 @@
       <c r="C170" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E170" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>31</v>
       </c>
@@ -3927,8 +4951,14 @@
       <c r="C171" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E171" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>32</v>
       </c>
@@ -3938,8 +4968,14 @@
       <c r="C172" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E172" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>33</v>
       </c>
@@ -3949,8 +4985,14 @@
       <c r="C173" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E173" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>41</v>
       </c>
@@ -3960,8 +5002,14 @@
       <c r="C174" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E174" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>42</v>
       </c>
@@ -3971,8 +5019,14 @@
       <c r="C175" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E175" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>34</v>
       </c>
@@ -3982,8 +5036,14 @@
       <c r="C176" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E176" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>43</v>
       </c>
@@ -3993,8 +5053,14 @@
       <c r="C177" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E177" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>35</v>
       </c>
@@ -4004,8 +5070,14 @@
       <c r="C178" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E178" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>36</v>
       </c>
@@ -4015,8 +5087,14 @@
       <c r="C179" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E179" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>37</v>
       </c>
@@ -4026,8 +5104,14 @@
       <c r="C180" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E180" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>38</v>
       </c>
@@ -4037,8 +5121,14 @@
       <c r="C181" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E181" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>14</v>
       </c>
@@ -4048,8 +5138,14 @@
       <c r="C182" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E182" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>15</v>
       </c>
@@ -4059,8 +5155,14 @@
       <c r="C183" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E183" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -4070,8 +5172,14 @@
       <c r="C184" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E184" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>17</v>
       </c>
@@ -4081,8 +5189,14 @@
       <c r="C185" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E185" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>18</v>
       </c>
@@ -4092,8 +5206,14 @@
       <c r="C186" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E186" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>19</v>
       </c>
@@ -4103,8 +5223,14 @@
       <c r="C187" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E187" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>20</v>
       </c>
@@ -4114,8 +5240,14 @@
       <c r="C188" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E188" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>21</v>
       </c>
@@ -4125,8 +5257,14 @@
       <c r="C189" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E189" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>39</v>
       </c>
@@ -4136,8 +5274,14 @@
       <c r="C190" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E190" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>22</v>
       </c>
@@ -4147,8 +5291,14 @@
       <c r="C191" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E191" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>23</v>
       </c>
@@ -4158,8 +5308,14 @@
       <c r="C192" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E192" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>24</v>
       </c>
@@ -4169,8 +5325,14 @@
       <c r="C193" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E193" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>25</v>
       </c>
@@ -4180,8 +5342,14 @@
       <c r="C194" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E194" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>26</v>
       </c>
@@ -4191,8 +5359,14 @@
       <c r="C195" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E195" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>27</v>
       </c>
@@ -4202,8 +5376,14 @@
       <c r="C196" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E196" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>28</v>
       </c>
@@ -4213,8 +5393,14 @@
       <c r="C197" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E197" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>29</v>
       </c>
@@ -4224,8 +5410,14 @@
       <c r="C198" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E198" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>30</v>
       </c>
@@ -4235,8 +5427,14 @@
       <c r="C199" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E199" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>40</v>
       </c>
@@ -4246,8 +5444,14 @@
       <c r="C200" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E200" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>31</v>
       </c>
@@ -4257,8 +5461,14 @@
       <c r="C201" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E201" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>32</v>
       </c>
@@ -4268,8 +5478,14 @@
       <c r="C202" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E202" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>33</v>
       </c>
@@ -4279,8 +5495,14 @@
       <c r="C203" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E203" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>41</v>
       </c>
@@ -4290,8 +5512,14 @@
       <c r="C204" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E204" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>42</v>
       </c>
@@ -4301,8 +5529,14 @@
       <c r="C205" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E205" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>34</v>
       </c>
@@ -4312,8 +5546,14 @@
       <c r="C206" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E206" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>43</v>
       </c>
@@ -4323,8 +5563,14 @@
       <c r="C207" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E207" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>35</v>
       </c>
@@ -4334,8 +5580,14 @@
       <c r="C208" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E208" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>36</v>
       </c>
@@ -4345,8 +5597,14 @@
       <c r="C209" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E209" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>37</v>
       </c>
@@ -4356,8 +5614,14 @@
       <c r="C210" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E210" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>38</v>
       </c>
@@ -4367,8 +5631,14 @@
       <c r="C211" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E211" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>14</v>
       </c>
@@ -4378,8 +5648,14 @@
       <c r="C212" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E212" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>15</v>
       </c>
@@ -4389,8 +5665,14 @@
       <c r="C213" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E213" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>16</v>
       </c>
@@ -4400,8 +5682,14 @@
       <c r="C214" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E214" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>17</v>
       </c>
@@ -4411,8 +5699,14 @@
       <c r="C215" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E215" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -4422,8 +5716,14 @@
       <c r="C216" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E216" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>19</v>
       </c>
@@ -4433,8 +5733,14 @@
       <c r="C217" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E217" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>20</v>
       </c>
@@ -4444,8 +5750,14 @@
       <c r="C218" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E218" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>21</v>
       </c>
@@ -4455,8 +5767,14 @@
       <c r="C219" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E219" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>39</v>
       </c>
@@ -4466,8 +5784,14 @@
       <c r="C220" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E220" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>22</v>
       </c>
@@ -4477,8 +5801,14 @@
       <c r="C221" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E221" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>23</v>
       </c>
@@ -4488,8 +5818,14 @@
       <c r="C222" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E222" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>24</v>
       </c>
@@ -4499,8 +5835,14 @@
       <c r="C223" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E223" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>25</v>
       </c>
@@ -4510,8 +5852,14 @@
       <c r="C224" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E224" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>26</v>
       </c>
@@ -4521,8 +5869,14 @@
       <c r="C225" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E225" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>27</v>
       </c>
@@ -4532,8 +5886,14 @@
       <c r="C226" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E226" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>28</v>
       </c>
@@ -4543,8 +5903,14 @@
       <c r="C227" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E227" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>29</v>
       </c>
@@ -4554,8 +5920,14 @@
       <c r="C228" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E228" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>30</v>
       </c>
@@ -4565,8 +5937,14 @@
       <c r="C229" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E229" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>40</v>
       </c>
@@ -4576,8 +5954,14 @@
       <c r="C230" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E230" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>31</v>
       </c>
@@ -4587,8 +5971,14 @@
       <c r="C231" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E231" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>32</v>
       </c>
@@ -4598,8 +5988,14 @@
       <c r="C232" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E232" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>33</v>
       </c>
@@ -4609,8 +6005,14 @@
       <c r="C233" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E233" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>41</v>
       </c>
@@ -4620,8 +6022,14 @@
       <c r="C234" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E234" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>42</v>
       </c>
@@ -4631,8 +6039,14 @@
       <c r="C235" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E235" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>34</v>
       </c>
@@ -4642,8 +6056,14 @@
       <c r="C236" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E236" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>43</v>
       </c>
@@ -4653,8 +6073,14 @@
       <c r="C237" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E237" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>35</v>
       </c>
@@ -4664,8 +6090,14 @@
       <c r="C238" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E238" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>36</v>
       </c>
@@ -4675,8 +6107,14 @@
       <c r="C239" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E239" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>37</v>
       </c>
@@ -4686,8 +6124,14 @@
       <c r="C240" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E240" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>38</v>
       </c>
@@ -4697,8 +6141,14 @@
       <c r="C241" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E241" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>14</v>
       </c>
@@ -4708,8 +6158,14 @@
       <c r="C242" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E242" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>15</v>
       </c>
@@ -4719,8 +6175,14 @@
       <c r="C243" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E243" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>16</v>
       </c>
@@ -4730,8 +6192,14 @@
       <c r="C244" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E244" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>17</v>
       </c>
@@ -4741,8 +6209,14 @@
       <c r="C245" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E245" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>18</v>
       </c>
@@ -4752,8 +6226,14 @@
       <c r="C246" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E246" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>19</v>
       </c>
@@ -4763,8 +6243,14 @@
       <c r="C247" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E247" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>20</v>
       </c>
@@ -4774,8 +6260,14 @@
       <c r="C248" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E248" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>21</v>
       </c>
@@ -4785,8 +6277,14 @@
       <c r="C249" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E249" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>39</v>
       </c>
@@ -4796,8 +6294,14 @@
       <c r="C250" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E250" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>22</v>
       </c>
@@ -4807,8 +6311,14 @@
       <c r="C251" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E251" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>23</v>
       </c>
@@ -4818,8 +6328,14 @@
       <c r="C252" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E252" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>24</v>
       </c>
@@ -4829,8 +6345,14 @@
       <c r="C253" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E253" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>25</v>
       </c>
@@ -4840,8 +6362,14 @@
       <c r="C254" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E254" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>26</v>
       </c>
@@ -4851,8 +6379,14 @@
       <c r="C255" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E255" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>27</v>
       </c>
@@ -4862,8 +6396,14 @@
       <c r="C256" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E256" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>28</v>
       </c>
@@ -4873,8 +6413,14 @@
       <c r="C257" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E257" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>29</v>
       </c>
@@ -4884,8 +6430,14 @@
       <c r="C258" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E258" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>30</v>
       </c>
@@ -4895,8 +6447,14 @@
       <c r="C259" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E259" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>40</v>
       </c>
@@ -4906,8 +6464,14 @@
       <c r="C260" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E260" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>31</v>
       </c>
@@ -4917,8 +6481,14 @@
       <c r="C261" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E261" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>32</v>
       </c>
@@ -4928,8 +6498,14 @@
       <c r="C262" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E262" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>33</v>
       </c>
@@ -4939,8 +6515,14 @@
       <c r="C263" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E263" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>41</v>
       </c>
@@ -4950,8 +6532,14 @@
       <c r="C264" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E264" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>42</v>
       </c>
@@ -4961,8 +6549,14 @@
       <c r="C265" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E265" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>34</v>
       </c>
@@ -4972,8 +6566,14 @@
       <c r="C266" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E266" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>43</v>
       </c>
@@ -4983,8 +6583,14 @@
       <c r="C267" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E267" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>35</v>
       </c>
@@ -4994,8 +6600,14 @@
       <c r="C268" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E268" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>36</v>
       </c>
@@ -5005,8 +6617,14 @@
       <c r="C269" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E269" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>37</v>
       </c>
@@ -5016,8 +6634,14 @@
       <c r="C270" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E270" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>38</v>
       </c>
@@ -5027,8 +6651,14 @@
       <c r="C271" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E271" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>14</v>
       </c>
@@ -5038,8 +6668,14 @@
       <c r="C272" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E272" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>15</v>
       </c>
@@ -5049,8 +6685,14 @@
       <c r="C273" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E273" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>16</v>
       </c>
@@ -5060,8 +6702,14 @@
       <c r="C274" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E274" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>17</v>
       </c>
@@ -5071,8 +6719,14 @@
       <c r="C275" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E275" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>18</v>
       </c>
@@ -5082,8 +6736,14 @@
       <c r="C276" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E276" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>19</v>
       </c>
@@ -5093,8 +6753,14 @@
       <c r="C277" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E277" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>20</v>
       </c>
@@ -5104,8 +6770,14 @@
       <c r="C278" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E278" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>21</v>
       </c>
@@ -5115,8 +6787,14 @@
       <c r="C279" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E279" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>39</v>
       </c>
@@ -5126,8 +6804,14 @@
       <c r="C280" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E280" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>22</v>
       </c>
@@ -5137,8 +6821,14 @@
       <c r="C281" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E281" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>23</v>
       </c>
@@ -5148,8 +6838,14 @@
       <c r="C282" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E282" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>24</v>
       </c>
@@ -5159,8 +6855,14 @@
       <c r="C283" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E283" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>25</v>
       </c>
@@ -5170,8 +6872,14 @@
       <c r="C284" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E284" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>26</v>
       </c>
@@ -5181,8 +6889,14 @@
       <c r="C285" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E285" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>27</v>
       </c>
@@ -5192,8 +6906,14 @@
       <c r="C286" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E286" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>28</v>
       </c>
@@ -5203,8 +6923,14 @@
       <c r="C287" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E287" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>29</v>
       </c>
@@ -5214,8 +6940,14 @@
       <c r="C288" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E288" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>30</v>
       </c>
@@ -5225,8 +6957,14 @@
       <c r="C289" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E289" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>40</v>
       </c>
@@ -5236,8 +6974,14 @@
       <c r="C290" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E290" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>31</v>
       </c>
@@ -5247,8 +6991,14 @@
       <c r="C291" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E291" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>32</v>
       </c>
@@ -5258,8 +7008,14 @@
       <c r="C292" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E292" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>33</v>
       </c>
@@ -5269,8 +7025,14 @@
       <c r="C293" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E293" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>41</v>
       </c>
@@ -5280,8 +7042,14 @@
       <c r="C294" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E294" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>42</v>
       </c>
@@ -5291,8 +7059,14 @@
       <c r="C295" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E295" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>34</v>
       </c>
@@ -5302,8 +7076,14 @@
       <c r="C296" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E296" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>43</v>
       </c>
@@ -5313,8 +7093,14 @@
       <c r="C297" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E297" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>35</v>
       </c>
@@ -5324,8 +7110,14 @@
       <c r="C298" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E298" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>36</v>
       </c>
@@ -5335,8 +7127,14 @@
       <c r="C299" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E299" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>37</v>
       </c>
@@ -5346,8 +7144,14 @@
       <c r="C300" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E300" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>38</v>
       </c>
@@ -5357,8 +7161,14 @@
       <c r="C301" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E301" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>14</v>
       </c>
@@ -5368,8 +7178,14 @@
       <c r="C302" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E302" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>15</v>
       </c>
@@ -5379,8 +7195,14 @@
       <c r="C303" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E303" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>16</v>
       </c>
@@ -5390,8 +7212,14 @@
       <c r="C304" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E304" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>17</v>
       </c>
@@ -5401,8 +7229,14 @@
       <c r="C305" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E305" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>18</v>
       </c>
@@ -5412,8 +7246,14 @@
       <c r="C306" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E306" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>19</v>
       </c>
@@ -5423,8 +7263,14 @@
       <c r="C307" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E307" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>20</v>
       </c>
@@ -5434,8 +7280,14 @@
       <c r="C308" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E308" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>21</v>
       </c>
@@ -5445,8 +7297,14 @@
       <c r="C309" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E309" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>39</v>
       </c>
@@ -5456,8 +7314,14 @@
       <c r="C310" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E310" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>22</v>
       </c>
@@ -5467,8 +7331,14 @@
       <c r="C311" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E311" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>23</v>
       </c>
@@ -5478,8 +7348,14 @@
       <c r="C312" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E312" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>24</v>
       </c>
@@ -5489,8 +7365,14 @@
       <c r="C313" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E313" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>25</v>
       </c>
@@ -5500,8 +7382,14 @@
       <c r="C314" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E314" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>26</v>
       </c>
@@ -5511,8 +7399,14 @@
       <c r="C315" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E315" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>27</v>
       </c>
@@ -5522,8 +7416,14 @@
       <c r="C316" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E316" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>28</v>
       </c>
@@ -5533,8 +7433,14 @@
       <c r="C317" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E317" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>29</v>
       </c>
@@ -5544,8 +7450,14 @@
       <c r="C318" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E318" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>30</v>
       </c>
@@ -5555,8 +7467,14 @@
       <c r="C319" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E319" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>40</v>
       </c>
@@ -5566,8 +7484,14 @@
       <c r="C320" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E320" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>31</v>
       </c>
@@ -5577,8 +7501,14 @@
       <c r="C321" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E321" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>32</v>
       </c>
@@ -5588,8 +7518,14 @@
       <c r="C322" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E322" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>33</v>
       </c>
@@ -5599,8 +7535,14 @@
       <c r="C323" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E323" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>41</v>
       </c>
@@ -5610,8 +7552,14 @@
       <c r="C324" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E324" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>42</v>
       </c>
@@ -5621,8 +7569,14 @@
       <c r="C325" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E325" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>34</v>
       </c>
@@ -5632,8 +7586,14 @@
       <c r="C326" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E326" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>43</v>
       </c>
@@ -5643,8 +7603,14 @@
       <c r="C327" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E327" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>35</v>
       </c>
@@ -5654,8 +7620,14 @@
       <c r="C328" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E328" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>36</v>
       </c>
@@ -5665,8 +7637,14 @@
       <c r="C329" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E329" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>37</v>
       </c>
@@ -5676,8 +7654,14 @@
       <c r="C330" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E330" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>38</v>
       </c>
@@ -5687,8 +7671,14 @@
       <c r="C331" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E331" s="5">
+        <v>144.96305799999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>14</v>
       </c>
@@ -5698,8 +7688,14 @@
       <c r="C332" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332" s="5">
+        <v>52.370215999999999</v>
+      </c>
+      <c r="E332" s="5">
+        <v>4.895168</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>15</v>
       </c>
@@ -5709,8 +7705,14 @@
       <c r="C333" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333" s="5">
+        <v>51.507351</v>
+      </c>
+      <c r="E333" s="5">
+        <v>-0.12775800000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>16</v>
       </c>
@@ -5720,8 +7722,14 @@
       <c r="C334" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334" s="5">
+        <v>49.282729000000003</v>
+      </c>
+      <c r="E334" s="5">
+        <v>-123.120738</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>17</v>
       </c>
@@ -5731,8 +7739,14 @@
       <c r="C335" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335" s="5">
+        <v>48.856614</v>
+      </c>
+      <c r="E335" s="5">
+        <v>2.3522219999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>18</v>
       </c>
@@ -5742,8 +7756,14 @@
       <c r="C336" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336" s="5">
+        <v>43.653225999999997</v>
+      </c>
+      <c r="E336" s="5">
+        <v>-79.383184</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>19</v>
       </c>
@@ -5753,8 +7773,14 @@
       <c r="C337" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337" s="5">
+        <v>42.650660999999999</v>
+      </c>
+      <c r="E337" s="5">
+        <v>18.094424</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>20</v>
       </c>
@@ -5764,8 +7790,14 @@
       <c r="C338" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338" s="5">
+        <v>41.902782999999999</v>
+      </c>
+      <c r="E338" s="5">
+        <v>12.496366</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>21</v>
       </c>
@@ -5775,8 +7807,14 @@
       <c r="C339" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339" s="5">
+        <v>41.385064</v>
+      </c>
+      <c r="E339" s="5">
+        <v>2.173403</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>39</v>
       </c>
@@ -5786,8 +7824,14 @@
       <c r="C340" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="E340" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>22</v>
       </c>
@@ -5797,8 +7841,14 @@
       <c r="C341" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341" s="5">
+        <v>39.695262999999997</v>
+      </c>
+      <c r="E341" s="5">
+        <v>3.0175709999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>23</v>
       </c>
@@ -5808,8 +7858,14 @@
       <c r="C342" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342" s="5">
+        <v>38.722251999999997</v>
+      </c>
+      <c r="E342" s="5">
+        <v>-9.1393369999999994</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>24</v>
       </c>
@@ -5819,8 +7875,14 @@
       <c r="C343" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343" s="5">
+        <v>37.983809999999998</v>
+      </c>
+      <c r="E343" s="5">
+        <v>23.727539</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>25</v>
       </c>
@@ -5830,8 +7892,14 @@
       <c r="C344" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344" s="5">
+        <v>37.017954000000003</v>
+      </c>
+      <c r="E344" s="5">
+        <v>-7.9308339999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>26</v>
       </c>
@@ -5841,8 +7909,14 @@
       <c r="C345" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345" s="5">
+        <v>36.721274000000001</v>
+      </c>
+      <c r="E345" s="5">
+        <v>-4.4213990000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>27</v>
       </c>
@@ -5852,8 +7926,14 @@
       <c r="C346" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346" s="5">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="E346" s="5">
+        <v>14.375416</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>28</v>
       </c>
@@ -5863,8 +7943,14 @@
       <c r="C347" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347" s="5">
+        <v>35.689487</v>
+      </c>
+      <c r="E347" s="5">
+        <v>139.69170600000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>29</v>
       </c>
@@ -5874,8 +7960,14 @@
       <c r="C348" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348" s="5">
+        <v>35.240116999999998</v>
+      </c>
+      <c r="E348" s="5">
+        <v>24.809269</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>30</v>
       </c>
@@ -5885,8 +7977,14 @@
       <c r="C349" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349" s="5">
+        <v>34.772013000000001</v>
+      </c>
+      <c r="E349" s="5">
+        <v>32.429737000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>40</v>
       </c>
@@ -5896,8 +7994,14 @@
       <c r="C350" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="E350" s="5">
+        <v>-118.243685</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>31</v>
       </c>
@@ -5907,8 +8011,14 @@
       <c r="C351" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351" s="5">
+        <v>31.629472</v>
+      </c>
+      <c r="E351" s="5">
+        <v>-7.9810840000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>32</v>
       </c>
@@ -5918,8 +8028,14 @@
       <c r="C352" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352" s="5">
+        <v>29.046854</v>
+      </c>
+      <c r="E352" s="5">
+        <v>-13.589973000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>33</v>
       </c>
@@ -5929,8 +8045,14 @@
       <c r="C353" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353" s="5">
+        <v>28.291564000000001</v>
+      </c>
+      <c r="E353" s="5">
+        <v>-16.62913</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>41</v>
       </c>
@@ -5940,8 +8062,14 @@
       <c r="C354" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354" s="5">
+        <v>27.92022</v>
+      </c>
+      <c r="E354" s="5">
+        <v>-15.547437</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>42</v>
       </c>
@@ -5951,8 +8079,14 @@
       <c r="C355" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355" s="5">
+        <v>25.204848999999999</v>
+      </c>
+      <c r="E355" s="5">
+        <v>55.270783000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>34</v>
       </c>
@@ -5962,8 +8096,14 @@
       <c r="C356" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356" s="5">
+        <v>21.161908</v>
+      </c>
+      <c r="E356" s="5">
+        <v>-86.851528000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>43</v>
       </c>
@@ -5973,8 +8113,14 @@
       <c r="C357" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357" s="5">
+        <v>18.58201</v>
+      </c>
+      <c r="E357" s="5">
+        <v>-68.405473000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>35</v>
       </c>
@@ -5984,8 +8130,14 @@
       <c r="C358" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358" s="5">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="E358" s="5">
+        <v>73.220680000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>36</v>
       </c>
@@ -5995,8 +8147,14 @@
       <c r="C359" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359" s="5">
+        <v>-8.4095180000000003</v>
+      </c>
+      <c r="E359" s="5">
+        <v>115.18891600000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>37</v>
       </c>
@@ -6006,8 +8164,14 @@
       <c r="C360" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360" s="5">
+        <v>-33.868819999999999</v>
+      </c>
+      <c r="E360" s="5">
+        <v>151.20929599999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>38</v>
       </c>
@@ -6016,6 +8180,12 @@
       </c>
       <c r="C361" s="7">
         <v>19</v>
+      </c>
+      <c r="D361" s="5">
+        <v>-37.813628000000001</v>
+      </c>
+      <c r="E361" s="5">
+        <v>144.96305799999999</v>
       </c>
     </row>
   </sheetData>
@@ -6164,5 +8334,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>